--- a/Tests/CongressCrush_regresssionTest_20191004.xlsx
+++ b/Tests/CongressCrush_regresssionTest_20191004.xlsx
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -547,7 +548,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
